--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -189,6 +189,27 @@
   </si>
   <si>
     <t>Der Funktionsumfang des Projektes wird wenn nötig reduziert.</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>PDF auf Surface darstellen kompliziert</t>
+  </si>
+  <si>
+    <t>Es ist kompliziert, ein PDF auf dem Surface darzustellen. Möglicherweise muss das PDF Dokument in ein anderes Format umgewandelt werden.</t>
+  </si>
+  <si>
+    <t>Das Problem wir früh angegangen und bereits im Architekturprototypen umgesetzt.</t>
+  </si>
+  <si>
+    <t>lemer</t>
+  </si>
+  <si>
+    <t>PDF auf Surface darstellen kompliziert,  Werte angepasst</t>
+  </si>
+  <si>
+    <t>Umwandlung in anderen Dokumenttypen wird programmiert oder externe Hilfe wird angefordert.</t>
   </si>
 </sst>
 </file>
@@ -605,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -648,18 +669,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,30 +679,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -736,9 +721,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -772,99 +754,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -885,30 +774,168 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -927,9 +954,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -967,7 +994,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1039,7 +1066,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1217,10 +1244,10 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -1231,7 +1258,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="58" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="6"/>
@@ -1241,19 +1268,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="21">
-        <v>40809</v>
+        <v>40811</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="6" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
@@ -1263,72 +1290,78 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="106" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="40" t="s">
+      <c r="C8" s="77"/>
+      <c r="D8" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="79"/>
+      <c r="D9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="39"/>
+      <c r="A11" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1336,8 +1369,8 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1348,12 +1381,12 @@
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="70" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1373,17 +1406,17 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="106" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="106" t="s">
+      <c r="E16" s="60" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="3"/>
@@ -1395,8 +1428,8 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="40"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="19"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1405,11 +1438,11 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="68"/>
       <c r="C18" s="69"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="39"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="27"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1417,11 +1450,11 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="68"/>
       <c r="C19" s="69"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="27"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1429,11 +1462,11 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="68"/>
       <c r="C20" s="69"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="27"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1442,9 +1475,9 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1452,12 +1485,12 @@
       <c r="A23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="70" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="63"/>
     </row>
     <row r="24" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
@@ -1467,53 +1500,53 @@
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="106" t="s">
+      <c r="C25" s="65"/>
+      <c r="D25" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="106" t="s">
+      <c r="E25" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="66"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="40"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="68"/>
       <c r="C27" s="69"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="39"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="68"/>
       <c r="C28" s="69"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="39"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="68"/>
       <c r="C29" s="69"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="39"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="42"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1521,12 +1554,12 @@
       <c r="A32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="105"/>
-      <c r="C32" s="70" t="s">
+      <c r="B32" s="59"/>
+      <c r="C32" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
     </row>
     <row r="33" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
@@ -1536,65 +1569,65 @@
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="107" t="s">
+      <c r="B34" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="108"/>
-      <c r="D34" s="106" t="s">
+      <c r="C34" s="65"/>
+      <c r="D34" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="106" t="s">
+      <c r="E34" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="66"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="40"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="68"/>
       <c r="C36" s="69"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="39"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="68"/>
       <c r="C37" s="69"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="39"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="68"/>
       <c r="C38" s="69"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="39"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="42"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="20"/>
     </row>
     <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="105"/>
-      <c r="C42" s="70" t="s">
+      <c r="B42" s="59"/>
+      <c r="C42" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="70"/>
-      <c r="E42" s="71"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="63"/>
     </row>
     <row r="43" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
@@ -1604,64 +1637,70 @@
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="101" t="s">
+      <c r="A44" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="107" t="s">
+      <c r="B44" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="108"/>
-      <c r="D44" s="106" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="106" t="s">
+      <c r="E44" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="40"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="68"/>
       <c r="C46" s="69"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="39"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="27"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="68"/>
       <c r="C47" s="69"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="39"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="27"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="68"/>
       <c r="C48" s="69"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="39"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="27"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="42"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="C14:E14"/>
@@ -1678,19 +1717,13 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1705,10 +1738,10 @@
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -1716,7 +1749,7 @@
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.140625" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
     <col min="8" max="8" width="30.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
@@ -1743,15 +1776,15 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
@@ -1763,306 +1796,329 @@
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="103"/>
-      <c r="H6" s="100" t="s">
+      <c r="G6" s="87"/>
+      <c r="H6" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="84"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="39" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10">
         <v>40809</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="43">
         <v>1</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="50" t="s">
+      <c r="G7" s="105"/>
+      <c r="H7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="39">
         <f>COUNTA(A18:A51)</f>
-        <v>3</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="40">
+        <v>40811</v>
+      </c>
+      <c r="E8" s="44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F8" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="107"/>
+      <c r="H8" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="39">
         <f>F26</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94"/>
+        <v>33</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="109"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="109"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="83"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="94"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="109"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="94"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="61"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="62"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="63"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="98" t="s">
+      <c r="D17" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="98" t="s">
+      <c r="F17" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="97" t="s">
+      <c r="G17" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="96" t="s">
+      <c r="H17" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="99" t="s">
+      <c r="I17" s="55" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="25">
         <v>50</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="22">
         <v>0</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="25">
         <v>0</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="109"/>
+      <c r="I18" s="61"/>
     </row>
     <row r="19" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="29">
-        <v>0</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="D19" s="25">
         <v>10</v>
       </c>
-      <c r="F19" s="29">
+      <c r="E19" s="22">
+        <v>30</v>
+      </c>
+      <c r="F19" s="25">
         <f t="shared" ref="F19:F24" si="0">(D19/100)*E19</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="26"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="29">
-        <v>0</v>
-      </c>
-      <c r="E20" s="26">
+      <c r="D20" s="25">
+        <v>10</v>
+      </c>
+      <c r="E20" s="22">
         <v>50</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="93">
+        <v>50</v>
+      </c>
+      <c r="E21" s="94">
+        <v>50</v>
+      </c>
+      <c r="F21" s="95">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G21" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="96"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="26"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="29">
+      <c r="G22" s="89"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="98"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="29">
+      <c r="G23" s="89"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="98"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="99"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="31"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="31"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="37"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="103"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -2082,13 +2138,13 @@
       <c r="D26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="34">
         <f>SUM(E18:E24)</f>
-        <v>60</v>
-      </c>
-      <c r="F26" s="46">
+        <v>130</v>
+      </c>
+      <c r="F26" s="34">
         <f>SUM(F18:F24)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>

--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="225" windowWidth="15315" windowHeight="6090"/>
+    <workbookView xWindow="360" yWindow="225" windowWidth="15315" windowHeight="6090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Risiko-History" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Umwandlung in anderen Dokumenttypen wird programmiert oder externe Hilfe wird angefordert.</t>
+  </si>
+  <si>
+    <t>R04 bereinigt</t>
+  </si>
+  <si>
+    <t>lelmer</t>
   </si>
 </sst>
 </file>
@@ -1243,8 +1249,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,10 +1357,10 @@
         <v>54</v>
       </c>
       <c r="C11" s="79"/>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
@@ -1735,10 +1741,10 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,13 +1873,21 @@
       </c>
       <c r="B9" s="39">
         <f>F26</f>
-        <v>33</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="108"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="40">
+        <v>40811</v>
+      </c>
+      <c r="E9" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="F9" s="108" t="s">
+        <v>60</v>
+      </c>
       <c r="G9" s="109"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="I9" s="82"/>
       <c r="J9" s="83"/>
     </row>
@@ -2061,14 +2075,14 @@
         <v>55</v>
       </c>
       <c r="D21" s="93">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E21" s="94">
         <v>50</v>
       </c>
       <c r="F21" s="95">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G21" s="88" t="s">
         <v>56</v>
@@ -2076,7 +2090,9 @@
       <c r="H21" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="96"/>
+      <c r="I21" s="96" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
@@ -2144,7 +2160,7 @@
       </c>
       <c r="F26" s="34">
         <f>SUM(F18:F24)</f>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>

--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>lelmer</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>cheidt</t>
   </si>
 </sst>
 </file>
@@ -789,6 +795,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -804,44 +870,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -861,66 +921,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -933,15 +945,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -960,9 +966,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1000,7 +1006,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1072,7 +1078,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1253,7 +1259,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -1282,11 +1288,11 @@
         <v>38</v>
       </c>
       <c r="B5" s="59"/>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
@@ -1299,10 +1305,10 @@
       <c r="A7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="60" t="s">
         <v>48</v>
       </c>
@@ -1314,10 +1320,10 @@
       <c r="A8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="28" t="s">
         <v>24</v>
       </c>
@@ -1327,10 +1333,10 @@
       <c r="A9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="29" t="s">
         <v>24</v>
       </c>
@@ -1340,10 +1346,10 @@
       <c r="A10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="29" t="s">
         <v>24</v>
       </c>
@@ -1353,10 +1359,10 @@
       <c r="A11" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="29"/>
       <c r="E11" s="27" t="s">
         <v>24</v>
@@ -1364,8 +1370,8 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="31"/>
       <c r="E12" s="32"/>
       <c r="H12" s="3"/>
@@ -1375,8 +1381,8 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1388,11 +1394,11 @@
         <v>39</v>
       </c>
       <c r="B14" s="59"/>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1415,10 +1421,10 @@
       <c r="A16" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="60" t="s">
         <v>48</v>
       </c>
@@ -1433,8 +1439,8 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="75"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="28"/>
       <c r="E17" s="19"/>
       <c r="H17" s="3"/>
@@ -1445,8 +1451,8 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="29"/>
       <c r="E18" s="27"/>
       <c r="H18" s="3"/>
@@ -1457,8 +1463,8 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="29"/>
       <c r="E19" s="27"/>
       <c r="H19" s="3"/>
@@ -1469,8 +1475,8 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="29"/>
       <c r="E20" s="27"/>
       <c r="H20" s="3"/>
@@ -1481,8 +1487,8 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="71"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="30"/>
       <c r="E21" s="20"/>
     </row>
@@ -1492,11 +1498,11 @@
         <v>40</v>
       </c>
       <c r="B23" s="59"/>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="83"/>
     </row>
     <row r="24" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
@@ -1509,10 +1515,10 @@
       <c r="A25" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="60" t="s">
         <v>48</v>
       </c>
@@ -1522,36 +1528,36 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="95"/>
       <c r="D26" s="28"/>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="29"/>
       <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="29"/>
       <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="29"/>
       <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="71"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="30"/>
       <c r="E30" s="20"/>
     </row>
@@ -1561,11 +1567,11 @@
         <v>41</v>
       </c>
       <c r="B32" s="59"/>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="83"/>
     </row>
     <row r="33" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
@@ -1578,10 +1584,10 @@
       <c r="A34" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="65"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="60" t="s">
         <v>48</v>
       </c>
@@ -1591,36 +1597,36 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="75"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
       <c r="D35" s="28"/>
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="29"/>
       <c r="E36" s="27"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="29"/>
       <c r="E37" s="27"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="29"/>
       <c r="E38" s="27"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="71"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="30"/>
       <c r="E39" s="20"/>
     </row>
@@ -1629,11 +1635,11 @@
         <v>42</v>
       </c>
       <c r="B42" s="59"/>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="63"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="83"/>
     </row>
     <row r="43" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
@@ -1646,10 +1652,10 @@
       <c r="A44" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="65"/>
+      <c r="C44" s="85"/>
       <c r="D44" s="60" t="s">
         <v>48</v>
       </c>
@@ -1659,54 +1665,48 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="75"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="87"/>
       <c r="D45" s="28"/>
       <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="29"/>
       <c r="E46" s="27"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="29"/>
       <c r="E47" s="27"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="79"/>
       <c r="D48" s="29"/>
       <c r="E48" s="27"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="71"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="81"/>
       <c r="D49" s="30"/>
       <c r="E49" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="C14:E14"/>
@@ -1723,13 +1723,19 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1744,10 +1750,10 @@
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -1808,17 +1814,17 @@
       <c r="E6" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="87"/>
+      <c r="G6" s="107"/>
       <c r="H6" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="81"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1840,8 +1846,8 @@
       <c r="H7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="101"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1857,15 +1863,15 @@
       <c r="E8" s="44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="107"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="101"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1881,45 +1887,53 @@
       <c r="E9" s="45">
         <v>1.2</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="109"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="101"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="83"/>
+      <c r="D10" s="40">
+        <v>40816</v>
+      </c>
+      <c r="E10" s="45">
+        <v>1.3</v>
+      </c>
+      <c r="F10" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="111"/>
+      <c r="H10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="D11" s="40"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="109"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="111"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="40"/>
       <c r="E12" s="45"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="47"/>
       <c r="I12" s="48"/>
     </row>
@@ -1928,8 +1942,8 @@
       <c r="B13" s="1"/>
       <c r="D13" s="40"/>
       <c r="E13" s="45"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111"/>
       <c r="H13" s="47"/>
       <c r="I13" s="48"/>
     </row>
@@ -1938,16 +1952,16 @@
       <c r="B14" s="1"/>
       <c r="D14" s="40"/>
       <c r="E14" s="45"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="109"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="111"/>
       <c r="H14" s="11"/>
       <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="49"/>
       <c r="E15" s="46"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97"/>
       <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2036,7 +2050,7 @@
       </c>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>11</v>
       </c>
@@ -2065,76 +2079,76 @@
       <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="63" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="93">
+      <c r="D21" s="67">
         <v>0</v>
       </c>
-      <c r="E21" s="94">
+      <c r="E21" s="68">
         <v>50</v>
       </c>
-      <c r="F21" s="95">
+      <c r="F21" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="88" t="s">
+      <c r="G21" s="62" t="s">
         <v>56</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="96" t="s">
+      <c r="I21" s="70" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="95"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="95">
+      <c r="F22" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="89"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="35"/>
-      <c r="I22" s="98"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="95"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="95">
+      <c r="F23" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="89"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="35"/>
-      <c r="I23" s="98"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="99"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="93">
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="103"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="77"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>

--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -638,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -795,9 +795,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -843,6 +840,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -855,20 +870,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -885,18 +894,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -947,7 +944,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -966,9 +963,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1006,7 +1003,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1078,7 +1075,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1256,10 +1253,10 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -1288,11 +1285,11 @@
         <v>38</v>
       </c>
       <c r="B5" s="59"/>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
     </row>
     <row r="6" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
@@ -1305,10 +1302,10 @@
       <c r="A7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="85"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="60" t="s">
         <v>48</v>
       </c>
@@ -1320,10 +1317,10 @@
       <c r="A8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="28" t="s">
         <v>24</v>
       </c>
@@ -1333,10 +1330,10 @@
       <c r="A9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="89"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="29" t="s">
         <v>24</v>
       </c>
@@ -1346,10 +1343,10 @@
       <c r="A10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="89"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="29" t="s">
         <v>24</v>
       </c>
@@ -1359,10 +1356,10 @@
       <c r="A11" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="29"/>
       <c r="E11" s="27" t="s">
         <v>24</v>
@@ -1370,8 +1367,8 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="31"/>
       <c r="E12" s="32"/>
       <c r="H12" s="3"/>
@@ -1381,8 +1378,8 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1394,11 +1391,11 @@
         <v>39</v>
       </c>
       <c r="B14" s="59"/>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1421,10 +1418,10 @@
       <c r="A16" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="85"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="60" t="s">
         <v>48</v>
       </c>
@@ -1439,8 +1436,8 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="28"/>
       <c r="E17" s="19"/>
       <c r="H17" s="3"/>
@@ -1451,8 +1448,8 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
       <c r="D18" s="29"/>
       <c r="E18" s="27"/>
       <c r="H18" s="3"/>
@@ -1463,8 +1460,8 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="29"/>
       <c r="E19" s="27"/>
       <c r="H19" s="3"/>
@@ -1475,8 +1472,8 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="29"/>
       <c r="E20" s="27"/>
       <c r="H20" s="3"/>
@@ -1487,8 +1484,8 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="30"/>
       <c r="E21" s="20"/>
     </row>
@@ -1498,11 +1495,11 @@
         <v>40</v>
       </c>
       <c r="B23" s="59"/>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="78"/>
     </row>
     <row r="24" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
@@ -1515,10 +1512,10 @@
       <c r="A25" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="85"/>
+      <c r="C25" s="80"/>
       <c r="D25" s="60" t="s">
         <v>48</v>
       </c>
@@ -1528,36 +1525,36 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="95"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="28"/>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="79"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="29"/>
       <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="79"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="29"/>
       <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="29"/>
       <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="30"/>
       <c r="E30" s="20"/>
     </row>
@@ -1567,11 +1564,11 @@
         <v>41</v>
       </c>
       <c r="B32" s="59"/>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="78"/>
     </row>
     <row r="33" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
@@ -1584,10 +1581,10 @@
       <c r="A34" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="85"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="60" t="s">
         <v>48</v>
       </c>
@@ -1597,36 +1594,36 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="87"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="28"/>
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="79"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="29"/>
       <c r="E36" s="27"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="79"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
       <c r="D37" s="29"/>
       <c r="E37" s="27"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="79"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="29"/>
       <c r="E38" s="27"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="86"/>
       <c r="D39" s="30"/>
       <c r="E39" s="20"/>
     </row>
@@ -1635,11 +1632,11 @@
         <v>42</v>
       </c>
       <c r="B42" s="59"/>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="82"/>
-      <c r="E42" s="83"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="78"/>
     </row>
     <row r="43" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
@@ -1652,10 +1649,10 @@
       <c r="A44" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="85"/>
+      <c r="C44" s="80"/>
       <c r="D44" s="60" t="s">
         <v>48</v>
       </c>
@@ -1665,48 +1662,54 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="87"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="90"/>
       <c r="D45" s="28"/>
       <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="79"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="84"/>
       <c r="D46" s="29"/>
       <c r="E46" s="27"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="79"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="84"/>
       <c r="D47" s="29"/>
       <c r="E47" s="27"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="79"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="84"/>
       <c r="D48" s="29"/>
       <c r="E48" s="27"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="81"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="86"/>
       <c r="D49" s="30"/>
       <c r="E49" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="C14:E14"/>
@@ -1723,19 +1726,13 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1750,10 +1747,10 @@
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -1814,17 +1811,17 @@
       <c r="E6" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="106" t="s">
+      <c r="F6" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="107"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="98" t="s">
+      <c r="I6" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="99"/>
+      <c r="J6" s="98"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1839,15 +1836,15 @@
       <c r="E7" s="43">
         <v>1</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="105"/>
+      <c r="G7" s="104"/>
       <c r="H7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="100"/>
-      <c r="J7" s="101"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="100"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1863,15 +1860,15 @@
       <c r="E8" s="44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F8" s="108" t="s">
+      <c r="F8" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="109"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="100"/>
-      <c r="J8" s="101"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1887,15 +1884,15 @@
       <c r="E9" s="45">
         <v>1.2</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="111"/>
+      <c r="G9" s="110"/>
       <c r="H9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="100"/>
-      <c r="J9" s="101"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="100"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1906,34 +1903,34 @@
       <c r="E10" s="45">
         <v>1.3</v>
       </c>
-      <c r="F10" s="110" t="s">
+      <c r="F10" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="111"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="101"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="D11" s="40"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="111"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="110"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="103"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="40"/>
       <c r="E12" s="45"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="111"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="110"/>
       <c r="H12" s="47"/>
       <c r="I12" s="48"/>
     </row>
@@ -1942,8 +1939,8 @@
       <c r="B13" s="1"/>
       <c r="D13" s="40"/>
       <c r="E13" s="45"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="111"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="110"/>
       <c r="H13" s="47"/>
       <c r="I13" s="48"/>
     </row>
@@ -1952,16 +1949,16 @@
       <c r="B14" s="1"/>
       <c r="D14" s="40"/>
       <c r="E14" s="45"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="111"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110"/>
       <c r="H14" s="11"/>
       <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="49"/>
       <c r="E15" s="46"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="97"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
       <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2022,7 +2019,7 @@
       </c>
       <c r="I18" s="61"/>
     </row>
-    <row r="19" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>10</v>
       </c>
@@ -2079,76 +2076,76 @@
       <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="66">
         <v>0</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="67">
         <v>50</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="70" t="s">
+      <c r="I21" s="69" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="69">
+      <c r="F22" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="63"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="35"/>
-      <c r="I22" s="72"/>
+      <c r="I22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="69">
+      <c r="F23" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="63"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="35"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="71"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="67">
+      <c r="A24" s="72"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="77"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="76"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>

--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="225" windowWidth="15315" windowHeight="6090" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="Risiko-History" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -206,9 +206,6 @@
     <t>lemer</t>
   </si>
   <si>
-    <t>PDF auf Surface darstellen kompliziert,  Werte angepasst</t>
-  </si>
-  <si>
     <t>Umwandlung in anderen Dokumenttypen wird programmiert oder externe Hilfe wird angefordert.</t>
   </si>
   <si>
@@ -222,6 +219,27 @@
   </si>
   <si>
     <t>cheidt</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>Share Point Anbindung</t>
+  </si>
+  <si>
+    <t>Der Cronjob kann nicht am Share Point angebunden werden. Deshalb müssten die PNs manuell eingetragen werden, was zusäzliche variable Kosten verursacht.</t>
+  </si>
+  <si>
+    <t>R04 hinzuefügt + Werte angepasst</t>
+  </si>
+  <si>
+    <t>Neues Risiko R05 gemäss Skype-Meeting</t>
+  </si>
+  <si>
+    <t>Es wird ein klares, einfaches API Interface vorgegeben, damit es möglichst einfach ist, die Anbindung zu programmieren.</t>
+  </si>
+  <si>
+    <t>Falls die Anbindung nicht möglich sein sollte, muss für den Betrieb ein GUI Interface programmiert werden, das einfach bedient werden kann. Somit bleiben die variablen Kosten tief.</t>
   </si>
 </sst>
 </file>
@@ -301,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -559,19 +577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -638,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -715,7 +720,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -727,22 +732,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -792,7 +797,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -840,6 +845,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -855,44 +872,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -918,10 +917,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1252,8 +1251,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1276,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="21">
-        <v>40811</v>
+        <v>40820</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
@@ -1285,11 +1284,11 @@
         <v>38</v>
       </c>
       <c r="B5" s="59"/>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
     </row>
     <row r="6" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
@@ -1302,10 +1301,10 @@
       <c r="A7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="60" t="s">
         <v>48</v>
       </c>
@@ -1317,10 +1316,10 @@
       <c r="A8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="94"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="28" t="s">
         <v>24</v>
       </c>
@@ -1330,10 +1329,10 @@
       <c r="A9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="29" t="s">
         <v>24</v>
       </c>
@@ -1343,10 +1342,10 @@
       <c r="A10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="29" t="s">
         <v>24</v>
       </c>
@@ -1356,10 +1355,10 @@
       <c r="A11" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="29"/>
       <c r="E11" s="27" t="s">
         <v>24</v>
@@ -1378,8 +1377,8 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1391,11 +1390,11 @@
         <v>39</v>
       </c>
       <c r="B14" s="59"/>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1418,10 +1417,10 @@
       <c r="A16" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="80"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="60" t="s">
         <v>48</v>
       </c>
@@ -1435,10 +1434,16 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="28"/>
+      <c r="A17" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="88"/>
+      <c r="D17" s="31" t="s">
+        <v>24</v>
+      </c>
       <c r="E17" s="19"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1448,8 +1453,8 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="29"/>
       <c r="E18" s="27"/>
       <c r="H18" s="3"/>
@@ -1460,8 +1465,8 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="29"/>
       <c r="E19" s="27"/>
       <c r="H19" s="3"/>
@@ -1472,8 +1477,8 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="29"/>
       <c r="E20" s="27"/>
       <c r="H20" s="3"/>
@@ -1484,8 +1489,8 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="30"/>
       <c r="E21" s="20"/>
     </row>
@@ -1495,11 +1500,11 @@
         <v>40</v>
       </c>
       <c r="B23" s="59"/>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
     </row>
     <row r="24" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
@@ -1512,10 +1517,10 @@
       <c r="A25" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="80"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="60" t="s">
         <v>48</v>
       </c>
@@ -1525,36 +1530,36 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="28"/>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="29"/>
       <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="29"/>
       <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="29"/>
       <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="80"/>
       <c r="D30" s="30"/>
       <c r="E30" s="20"/>
     </row>
@@ -1564,11 +1569,11 @@
         <v>41</v>
       </c>
       <c r="B32" s="59"/>
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="78"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="82"/>
     </row>
     <row r="33" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
@@ -1581,10 +1586,10 @@
       <c r="A34" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="80"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="60" t="s">
         <v>48</v>
       </c>
@@ -1594,36 +1599,36 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="90"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="86"/>
       <c r="D35" s="28"/>
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="29"/>
       <c r="E36" s="27"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="29"/>
       <c r="E37" s="27"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="84"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="29"/>
       <c r="E38" s="27"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="86"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="80"/>
       <c r="D39" s="30"/>
       <c r="E39" s="20"/>
     </row>
@@ -1632,11 +1637,11 @@
         <v>42</v>
       </c>
       <c r="B42" s="59"/>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="77"/>
-      <c r="E42" s="78"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
     </row>
     <row r="43" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
@@ -1649,10 +1654,10 @@
       <c r="A44" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="80"/>
+      <c r="C44" s="84"/>
       <c r="D44" s="60" t="s">
         <v>48</v>
       </c>
@@ -1662,54 +1667,48 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="90"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="86"/>
       <c r="D45" s="28"/>
       <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="84"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="29"/>
       <c r="E46" s="27"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="84"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="78"/>
       <c r="D47" s="29"/>
       <c r="E47" s="27"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="84"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="29"/>
       <c r="E48" s="27"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="86"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="80"/>
       <c r="D49" s="30"/>
       <c r="E49" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="C14:E14"/>
@@ -1726,13 +1725,19 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1744,10 +1749,10 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="14" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,17 +1816,17 @@
       <c r="E6" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="105" t="s">
+      <c r="F6" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="106"/>
+      <c r="G6" s="104"/>
       <c r="H6" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="97" t="s">
+      <c r="I6" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="98"/>
+      <c r="J6" s="96"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1836,15 +1841,15 @@
       <c r="E7" s="43">
         <v>1</v>
       </c>
-      <c r="F7" s="103" t="s">
+      <c r="F7" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="104"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="99"/>
-      <c r="J7" s="100"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="98"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1852,7 +1857,7 @@
       </c>
       <c r="B8" s="39">
         <f>COUNTA(A18:A51)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="40">
         <v>40811</v>
@@ -1860,15 +1865,15 @@
       <c r="E8" s="44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F8" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="108"/>
+      <c r="F8" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="106"/>
       <c r="H8" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="99"/>
-      <c r="J8" s="100"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="98"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1884,15 +1889,15 @@
       <c r="E9" s="45">
         <v>1.2</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="108"/>
+      <c r="H9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="99"/>
-      <c r="J9" s="100"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="98"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1903,34 +1908,42 @@
       <c r="E10" s="45">
         <v>1.3</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="108"/>
+      <c r="H10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="99"/>
-      <c r="J10" s="100"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="98"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
+      <c r="D11" s="40">
+        <v>40819</v>
+      </c>
+      <c r="E11" s="45">
+        <v>1.4</v>
+      </c>
+      <c r="F11" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="108"/>
+      <c r="H11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="99"/>
+      <c r="J11" s="100"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="40"/>
       <c r="E12" s="45"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="108"/>
       <c r="H12" s="47"/>
       <c r="I12" s="48"/>
     </row>
@@ -1939,8 +1952,8 @@
       <c r="B13" s="1"/>
       <c r="D13" s="40"/>
       <c r="E13" s="45"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="110"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="108"/>
       <c r="H13" s="47"/>
       <c r="I13" s="48"/>
     </row>
@@ -1949,16 +1962,16 @@
       <c r="B14" s="1"/>
       <c r="D14" s="40"/>
       <c r="E14" s="45"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="110"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="108"/>
       <c r="H14" s="11"/>
       <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="49"/>
       <c r="E15" s="46"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="94"/>
       <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2099,24 +2112,38 @@
         <v>56</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I21" s="69" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="35"/>
+    <row r="22" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="68">
+        <v>5</v>
+      </c>
+      <c r="E22" s="35">
+        <v>0</v>
+      </c>
       <c r="F22" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="35"/>
+      <c r="G22" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>69</v>
+      </c>
       <c r="I22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400"/>
+    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Risiko-History" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -164,18 +164,6 @@
     <t>(Anpassen bis 23.12.11)</t>
   </si>
   <si>
-    <t>(Anpassen bis 02.12.11)</t>
-  </si>
-  <si>
-    <t>(Anpassen bis 11.11.11)</t>
-  </si>
-  <si>
-    <t>(Anpassen bis 21.10.11)</t>
-  </si>
-  <si>
-    <t>(Anpassen bis 30.09.11)</t>
-  </si>
-  <si>
     <t>neu</t>
   </si>
   <si>
@@ -240,6 +228,48 @@
   </si>
   <si>
     <t>Falls die Anbindung nicht möglich sein sollte, muss für den Betrieb ein GUI Interface programmiert werden, das einfach bedient werden kann. Somit bleiben die variablen Kosten tief.</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>(Anpassen bis 03.10.11)</t>
+  </si>
+  <si>
+    <t>(Anpassen bis 17.10.11)</t>
+  </si>
+  <si>
+    <t>(Anpassen bis 31.10.11)</t>
+  </si>
+  <si>
+    <t>(Anpassen bis 14.11.11)</t>
+  </si>
+  <si>
+    <t>(Anpassen bis 28.11.11)</t>
+  </si>
+  <si>
+    <t>Sprint6</t>
+  </si>
+  <si>
+    <t>(Anpassen bis 12.12.11)</t>
+  </si>
+  <si>
+    <t>Sprint7</t>
+  </si>
+  <si>
+    <t>Neues Risiko R06</t>
+  </si>
+  <si>
+    <t>Der Papierprotoyp der zu erstellenden Anwendung  ist für Benutzer nicht gut verständlich. Daher müssen Anpassungen vorgenommen werden.</t>
+  </si>
+  <si>
+    <t>Vor der Erstellung des Papierprototyps werden in einem Creative Workshop verschiedenste Varianten für die Anwendung ausgearbeitet und miteinander verglichen.</t>
+  </si>
+  <si>
+    <t>Die nötigen Anpassungen werden vorgenommen und der Papierprototyp wird erneut getestet.</t>
+  </si>
+  <si>
+    <t>Papierprototyp benötig mehrere Anpassungen</t>
   </si>
 </sst>
 </file>
@@ -643,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -675,8 +705,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -698,7 +726,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,9 +733,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -800,9 +824,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -824,9 +845,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -845,6 +863,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -857,41 +887,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1249,10 +1246,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,7 +1263,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="6"/>
@@ -1275,7 +1272,7 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <v>40820</v>
       </c>
     </row>
@@ -1283,12 +1280,12 @@
       <c r="A5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
     </row>
     <row r="6" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
@@ -1298,78 +1295,78 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="60" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="56" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="76"/>
+      <c r="D8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="76"/>
+      <c r="D9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="29" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="27" t="s">
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="76"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1377,8 +1374,8 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1389,12 +1386,12 @@
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1414,17 +1411,17 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="60" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="56" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="3"/>
@@ -1434,17 +1431,17 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="87" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="31" t="s">
+      <c r="A17" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="76"/>
+      <c r="D17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="17"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1452,11 +1449,19 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="27"/>
+      <c r="A18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="76"/>
+      <c r="D18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1465,10 +1470,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="27"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="24"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1477,10 +1482,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="27"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="24"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1488,23 +1493,23 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="20"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
     </row>
     <row r="24" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
@@ -1514,66 +1519,66 @@
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="60" t="s">
+      <c r="C25" s="74"/>
+      <c r="D25" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="56" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="19"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="27"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="27"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="27"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="20"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="81"/>
-      <c r="E32" s="82"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="71"/>
+      <c r="E32" s="72"/>
     </row>
     <row r="33" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
@@ -1583,132 +1588,291 @@
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="60" t="s">
+      <c r="C34" s="74"/>
+      <c r="D34" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="56" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="19"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="27"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="27"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="27"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="20"/>
-    </row>
-    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="82"/>
-    </row>
-    <row r="43" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="4"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="71"/>
+      <c r="E41" s="72"/>
+    </row>
+    <row r="42" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="74"/>
+      <c r="D43" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="56" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="84"/>
-      <c r="D44" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="60" t="s">
-        <v>22</v>
-      </c>
+      <c r="A44" s="25"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="17"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="19"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="24"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="27"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="24"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="27"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="24"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="77"/>
       <c r="C48" s="78"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="27"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="20"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="55"/>
+      <c r="C50" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="71"/>
+      <c r="E50" s="72"/>
+    </row>
+    <row r="51" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="74"/>
+      <c r="D52" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="24"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="24"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="24"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="27"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="18"/>
+    </row>
+    <row r="58" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="55"/>
+      <c r="C59" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="71"/>
+      <c r="E59" s="72"/>
+    </row>
+    <row r="60" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="74"/>
+      <c r="D61" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="24"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="24"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="24"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="27"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+  <mergeCells count="50">
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="C14:E14"/>
@@ -1725,19 +1889,13 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1749,10 +1907,10 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="14" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,15 +1948,15 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
@@ -1810,369 +1968,393 @@
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="F6" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="56" t="s">
+      <c r="G6" s="91"/>
+      <c r="H6" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="95" t="s">
+      <c r="I6" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="96"/>
+      <c r="J6" s="83"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="35" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10">
         <v>40809</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="39">
         <v>1</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="38" t="s">
+      <c r="G7" s="89"/>
+      <c r="H7" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="98"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="35">
         <f>COUNTA(A18:A51)</f>
-        <v>5</v>
-      </c>
-      <c r="D8" s="40">
+        <v>6</v>
+      </c>
+      <c r="D8" s="36">
         <v>40811</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="40">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F8" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="97"/>
-      <c r="J8" s="98"/>
+      <c r="F8" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="93"/>
+      <c r="H8" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="35">
         <f>F26</f>
-        <v>8</v>
-      </c>
-      <c r="D9" s="40">
+        <v>11</v>
+      </c>
+      <c r="D9" s="36">
         <v>40811</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="41">
         <v>1.2</v>
       </c>
-      <c r="F9" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="108"/>
+      <c r="F9" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="95"/>
       <c r="H9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="98"/>
+        <v>56</v>
+      </c>
+      <c r="I9" s="84"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="D10" s="40">
+      <c r="D10" s="36">
         <v>40816</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="41">
         <v>1.3</v>
       </c>
-      <c r="F10" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="108"/>
+      <c r="F10" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="95"/>
       <c r="H10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="97"/>
-      <c r="J10" s="98"/>
+        <v>58</v>
+      </c>
+      <c r="I10" s="84"/>
+      <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="D11" s="40">
+      <c r="D11" s="36">
         <v>40819</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="41">
         <v>1.4</v>
       </c>
-      <c r="F11" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="108"/>
+      <c r="F11" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="95"/>
       <c r="H11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="99"/>
-      <c r="J11" s="100"/>
+        <v>56</v>
+      </c>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
+      <c r="D12" s="36">
+        <v>37180</v>
+      </c>
+      <c r="E12" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="95"/>
+      <c r="H12" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="108"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="48"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="49"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="50"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="52" t="s">
+      <c r="A17" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="51" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="23">
         <v>50</v>
       </c>
-      <c r="D18" s="25">
-        <v>50</v>
-      </c>
-      <c r="E18" s="22">
+      <c r="E18" s="20">
         <v>0</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="23">
         <v>0</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="61"/>
+      <c r="I18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="23">
         <v>10</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="20">
         <v>30</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="23">
         <f t="shared" ref="F19:F24" si="0">(D19/100)*E19</f>
         <v>3</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="22"/>
+      <c r="H19" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="23">
         <v>10</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="20">
         <v>50</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="22"/>
+      <c r="H20" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="66">
+      <c r="A21" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="61">
         <v>0</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="62">
         <v>50</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="69" t="s">
+      <c r="G21" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="64" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="68">
+      <c r="A22" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="63">
         <v>5</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="31">
         <v>0</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="71"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="68">
+      <c r="G22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="63">
+        <v>25</v>
+      </c>
+      <c r="E23" s="31">
+        <v>12</v>
+      </c>
+      <c r="F23" s="63">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="71"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="76"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="70"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -2192,13 +2374,13 @@
       <c r="D26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="30">
         <f>SUM(E18:E24)</f>
-        <v>130</v>
-      </c>
-      <c r="F26" s="34">
+        <v>142</v>
+      </c>
+      <c r="F26" s="30">
         <f>SUM(F18:F24)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>

--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungsgeschichte" sheetId="3" r:id="rId1"/>
@@ -229,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,20 +261,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF4F4F59"/>
       <name val="Cambria"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5D3EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF848491"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -286,11 +312,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -316,63 +344,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent4" xfId="3" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="2" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="1" builtinId="15"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="38">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79995117038483843"/>
+          <bgColor rgb="FFD5D3EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="7"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4F4F59"/>
+          <bgColor rgb="FF4F4F55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -418,10 +536,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium5 2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="TableStyleMedium5 2" pivot="0" count="9">
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstColumn" dxfId="10"/>
+      <tableStyleElement type="lastColumn" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF848491"/>
       <color rgb="FF4F4F59"/>
+      <color rgb="FF4F4F55"/>
       <color rgb="FFD5D3EA"/>
     </mruColors>
   </colors>
@@ -434,44 +564,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D10" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <tableColumns count="4">
-    <tableColumn id="1" name="Datum" dataDxfId="10"/>
-    <tableColumn id="2" name="Version" dataDxfId="13"/>
-    <tableColumn id="3" name="Änderung" dataDxfId="12"/>
-    <tableColumn id="5" name="Autor" dataDxfId="11"/>
+    <tableColumn id="1" name="Datum" dataDxfId="4"/>
+    <tableColumn id="2" name="Version" dataDxfId="5"/>
+    <tableColumn id="3" name="Änderung" dataDxfId="6"/>
+    <tableColumn id="5" name="Autor" dataDxfId="23"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A3:E10" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="SP"/>
+    <tableColumn id="1" name="SP" dataDxfId="3"/>
     <tableColumn id="2" name="Risikonr."/>
-    <tableColumn id="3" name="Risiko" dataDxfId="9"/>
-    <tableColumn id="5" name="SP neu"/>
-    <tableColumn id="6" name="SP bereinigt"/>
+    <tableColumn id="3" name="Risiko" dataDxfId="2"/>
+    <tableColumn id="5" name="SP neu" dataDxfId="1"/>
+    <tableColumn id="6" name="SP bereinigt" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I11" totalsRowCount="1" headerRowDxfId="18" dataDxfId="16" totalsRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I11" totalsRowCount="1" headerRowDxfId="28" dataDxfId="26" totalsRowDxfId="27">
   <tableColumns count="9">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="8"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="26" totalsRowDxfId="7"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="25" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="24" totalsRowDxfId="5"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="3"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="21" totalsRowDxfId="2"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="20" totalsRowDxfId="1"/>
-    <tableColumn id="9" name="Bereinigt" totalsRowFunction="count" dataDxfId="19" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="22"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="36" totalsRowDxfId="21"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="35" totalsRowDxfId="20"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="34" totalsRowDxfId="19"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="18"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="17"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="31" totalsRowDxfId="16"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="30" totalsRowDxfId="15"/>
+    <tableColumn id="9" name="Bereinigt" totalsRowFunction="count" dataDxfId="29" totalsRowDxfId="14"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -764,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +907,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="6"/>
@@ -809,10 +939,10 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="15">
         <v>40809</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -825,10 +955,10 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="15">
         <v>40811</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="14">
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -841,10 +971,10 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="15">
         <v>40811</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="14">
         <v>1.2</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -857,10 +987,10 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="15">
         <v>40816</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="14">
         <v>1.3</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -873,10 +1003,10 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="15">
         <v>40819</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="14">
         <v>1.4</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -889,10 +1019,10 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="15">
         <v>37180</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="14">
         <v>1.5</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -905,10 +1035,10 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="15">
         <v>40833</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="14">
         <v>1.6</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -937,20 +1067,19 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>58</v>
       </c>
       <c r="H1" s="4"/>
@@ -973,7 +1102,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -982,12 +1111,13 @@
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="16">
         <v>1</v>
       </c>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="16">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -996,12 +1126,13 @@
       <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="16">
         <v>1</v>
       </c>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="16">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -1010,12 +1141,13 @@
       <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="16">
         <v>1</v>
       </c>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="16">
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -1024,12 +1156,13 @@
       <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="16">
         <v>2</v>
       </c>
       <c r="B8" t="s">
@@ -1038,9 +1171,10 @@
       <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="16">
         <v>2</v>
       </c>
+      <c r="E8" s="16"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1048,7 +1182,7 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="16">
         <v>2</v>
       </c>
       <c r="B9" t="s">
@@ -1058,7 +1192,8 @@
         <f>Risiken!B4</f>
         <v>Surface2 wird nicht rechtzeitig geliefert</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16">
         <v>2</v>
       </c>
       <c r="H9" s="2"/>
@@ -1068,7 +1203,7 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -1077,10 +1212,10 @@
       <c r="C10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="16">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="16">
         <v>2</v>
       </c>
       <c r="H10" s="2"/>
@@ -1103,8 +1238,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,10 +1257,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1137,13 +1272,13 @@
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="7" t="s">

--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400"/>
+    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungsgeschichte" sheetId="3" r:id="rId1"/>
-    <sheet name="Risiko-History" sheetId="1" r:id="rId2"/>
-    <sheet name="Risiken" sheetId="2" r:id="rId3"/>
+    <sheet name="Risiken" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Risiken!$A$3:$I$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Risiken!$A$3:$H$11</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -39,15 +38,6 @@
     <t>Aktionen beim Eintreffen</t>
   </si>
   <si>
-    <t>R01</t>
-  </si>
-  <si>
-    <t>R02</t>
-  </si>
-  <si>
-    <t>R03</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -63,27 +53,6 @@
     <t>Erste Version des Dokuments</t>
   </si>
   <si>
-    <t>Risikonr.</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hinweis: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Die in der Tabelle ersichtlichen Arbeitsstunden betreffen immer die Arbeitszeit in der ganzen Gruppe und nicht eines einzelnen Projektmitglieds.</t>
-    </r>
-  </si>
-  <si>
     <t>Fehleinschätzung des Zeitaufwands</t>
   </si>
   <si>
@@ -120,9 +89,6 @@
     <t>Der Funktionsumfang des Projektes wird wenn nötig reduziert.</t>
   </si>
   <si>
-    <t>R04</t>
-  </si>
-  <si>
     <t>PDF auf Surface darstellen kompliziert</t>
   </si>
   <si>
@@ -138,9 +104,6 @@
     <t>Umwandlung in anderen Dokumenttypen wird programmiert oder externe Hilfe wird angefordert.</t>
   </si>
   <si>
-    <t>R04 bereinigt</t>
-  </si>
-  <si>
     <t>lelmer</t>
   </si>
   <si>
@@ -150,33 +113,15 @@
     <t>cheidt</t>
   </si>
   <si>
-    <t>R05</t>
-  </si>
-  <si>
     <t>Share Point Anbindung</t>
   </si>
   <si>
     <t>Der Cronjob kann nicht am Share Point angebunden werden. Deshalb müssten die PNs manuell eingetragen werden, was zusäzliche variable Kosten verursacht.</t>
   </si>
   <si>
-    <t>R04 hinzuefügt + Werte angepasst</t>
-  </si>
-  <si>
-    <t>Neues Risiko R05 gemäss Skype-Meeting</t>
-  </si>
-  <si>
-    <t>Es wird ein klares, einfaches API Interface vorgegeben, damit es möglichst einfach ist, die Anbindung zu programmieren.</t>
-  </si>
-  <si>
     <t>Falls die Anbindung nicht möglich sein sollte, muss für den Betrieb ein GUI Interface programmiert werden, das einfach bedient werden kann. Somit bleiben die variablen Kosten tief.</t>
   </si>
   <si>
-    <t>R06</t>
-  </si>
-  <si>
-    <t>Neues Risiko R06</t>
-  </si>
-  <si>
     <t>Der Papierprotoyp der zu erstellenden Anwendung  ist für Benutzer nicht gut verständlich. Daher müssen Anpassungen vorgenommen werden.</t>
   </si>
   <si>
@@ -198,31 +143,52 @@
     <t>Nr.</t>
   </si>
   <si>
-    <t>Bereinigt</t>
-  </si>
-  <si>
     <t>W'keit des Eintretens [%]</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Risiko-History</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
     <t>SP neu</t>
   </si>
   <si>
     <t>SP bereinigt</t>
   </si>
   <si>
-    <t>R01, R06 sind eingetreten und somit bereinigt, R02 ist mit den User Stories wahrscheinlicher geworden, Layout angepasst.</t>
-  </si>
-  <si>
     <t>Schadens-potenzial [h]</t>
+  </si>
+  <si>
+    <t>Bild aus XPS extrahieren</t>
+  </si>
+  <si>
+    <t>Aus jedem XPS soll ein Bild für jede PN extrahiert werden. Dies muss automatisch ablaufen. Schadenspotzenzial: Pro PN ca 10 Minuten, um Bild manuell zu extrahieren + höhere Betriebskosten.</t>
+  </si>
+  <si>
+    <t>Möglichst früh umsetzen (noch in SP3), um früh reagieren zu können.</t>
+  </si>
+  <si>
+    <t>Bilder manuell extrahieren. Kostet ca. 50 h + höhere Betriebskosten.</t>
+  </si>
+  <si>
+    <t>Es wird ein klares, einfaches API Interface vorgegeben (falls möglich sogar inkl. Unit Tests), damit es möglichst einfach ist, die Anbindung zu programmieren.</t>
+  </si>
+  <si>
+    <t>R4 hinzuefügt + Werte angepasst</t>
+  </si>
+  <si>
+    <t>R4 bereinigt</t>
+  </si>
+  <si>
+    <t>Neues Risiko R5 gemäss Skype-Meeting</t>
+  </si>
+  <si>
+    <t>Neues Risiko R6</t>
+  </si>
+  <si>
+    <t>Neues Risiko R7, R2 Wahrscheinlichkeit von 20% auf 15% angepasst.</t>
+  </si>
+  <si>
+    <t>R1, R6 sind eingetreten und somit bereinigt, R2 ist mit den User Stories wahrscheinlicher geworden, Layout angepasst.</t>
   </si>
 </sst>
 </file>
@@ -320,12 +286,9 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -335,9 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -345,9 +305,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -357,38 +314,119 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent4" xfId="3" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="2" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="3" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="2" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="36">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -463,88 +501,16 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium5 2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStyleMedium5 2" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="10"/>
-      <tableStyleElement type="lastColumn" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+    <tableStyle name="TableStyleMedium5 2" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="totalRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="lastColumn" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="29"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -564,11 +530,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D11" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
-    <tableColumn id="1" name="Datum" dataDxfId="4"/>
-    <tableColumn id="2" name="Version" dataDxfId="5"/>
-    <tableColumn id="3" name="Änderung" dataDxfId="6"/>
+    <tableColumn id="1" name="Datum" dataDxfId="26"/>
+    <tableColumn id="2" name="Version" dataDxfId="25"/>
+    <tableColumn id="3" name="Änderung" dataDxfId="24"/>
     <tableColumn id="5" name="Autor" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -576,39 +542,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A3:E10" totalsRowShown="0">
-  <tableColumns count="5">
-    <tableColumn id="1" name="SP" dataDxfId="3"/>
-    <tableColumn id="2" name="Risikonr."/>
-    <tableColumn id="3" name="Risiko" dataDxfId="2"/>
-    <tableColumn id="5" name="SP neu" dataDxfId="1"/>
-    <tableColumn id="6" name="SP bereinigt" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I11" totalsRowCount="1" headerRowDxfId="28" dataDxfId="26" totalsRowDxfId="27">
-  <tableColumns count="9">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="22"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="36" totalsRowDxfId="21"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="35" totalsRowDxfId="20"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="34" totalsRowDxfId="19"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="18"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="17"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="31" totalsRowDxfId="16"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="30" totalsRowDxfId="15"/>
-    <tableColumn id="9" name="Bereinigt" totalsRowFunction="count" dataDxfId="29" totalsRowDxfId="14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+  <tableColumns count="10">
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
+    <tableColumn id="10" name="SP neu" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="SP bereinigt" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -646,7 +600,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -718,7 +672,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -892,13 +846,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
@@ -907,148 +861,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>40809</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>40809</v>
-      </c>
-      <c r="B4" s="14">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="10">
         <v>40811</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="C5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="10">
         <v>40811</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="9">
         <v>1.2</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="C6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="10">
         <v>40816</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="9">
         <v>1.3</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="10">
         <v>40819</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="9">
         <v>1.4</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="C8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="10">
         <v>37180</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="9">
         <v>1.5</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="10">
         <v>40833</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="9">
         <v>1.6</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>40839</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1063,186 +1029,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:L10"/>
+  <sheetPr codeName="Tabelle2"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="16">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="16">
-        <v>2</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7" t="str">
-        <f>Risiken!B4</f>
-        <v>Surface2 wird nicht rechtzeitig geliefert</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="16">
-        <v>2</v>
-      </c>
-      <c r="E10" s="16">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -1252,8 +1046,7 @@
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="42.5703125" customWidth="1"/>
     <col min="8" max="8" width="30.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
@@ -1263,295 +1056,340 @@
       <c r="B1" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="1"/>
+      <c r="I3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4">
+        <f>(D5/100)*E5</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
         <v>50</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7">
-        <v>30</v>
-      </c>
-      <c r="F5" s="7">
-        <f>(D5/100)*E5</f>
-        <v>6</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="7">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7">
-        <v>50</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <f>(D6/100)*E6</f>
         <v>5</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>50</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <f>(D7/100)*E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>5</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <f>(D8/100)*E8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="7"/>
+      <c r="G8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>12</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <f>(D9/100)*E9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>100</v>
+      </c>
+      <c r="F10" s="4">
+        <f>(D10/100)*E10</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <f>SUBTOTAL(109,Table1[Schadens-potenzial '[h']])</f>
+        <v>237</v>
+      </c>
+      <c r="F12" s="4">
+        <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7">
-        <f>SUBTOTAL(109,Table1[Schadens-potenzial '[h']])</f>
-        <v>142</v>
-      </c>
-      <c r="F11" s="7">
-        <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
-        <v>11</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7">
-        <f>SUBTOTAL(103,Table1[Bereinigt])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>R1, R6 sind eingetreten und somit bereinigt, R2 ist mit den User Stories wahrscheinlicher geworden, Layout angepasst.</t>
+  </si>
+  <si>
+    <t>R7 bereinigt</t>
   </si>
 </sst>
 </file>
@@ -314,12 +317,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -331,6 +328,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -530,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D11" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D12" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -846,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,8 +890,8 @@
       <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
@@ -903,8 +906,8 @@
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -919,8 +922,8 @@
       <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -935,8 +938,8 @@
       <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -951,8 +954,8 @@
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -967,8 +970,8 @@
       <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
@@ -983,8 +986,8 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -999,20 +1002,34 @@
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>40839</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>1.7</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>40847</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1033,7 +1050,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,10 +1067,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1080,7 +1097,7 @@
       <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>43</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -1136,7 +1153,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="4">
-        <f>(D5/100)*E5</f>
+        <f t="shared" ref="F5:F10" si="0">(D5/100)*E5</f>
         <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1167,7 +1184,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="4">
-        <f>(D6/100)*E6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1198,7 +1215,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="4">
-        <f>(D7/100)*E7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1231,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <f>(D8/100)*E8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1262,7 +1279,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="4">
-        <f>(D9/100)*E9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1289,14 +1306,14 @@
         <v>47</v>
       </c>
       <c r="D10" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4">
         <v>100</v>
       </c>
       <c r="F10" s="4">
-        <f>(D10/100)*E10</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>48</v>
@@ -1307,7 +1324,9 @@
       <c r="I10" s="4">
         <v>3</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1334,7 +1353,7 @@
       </c>
       <c r="F12" s="4">
         <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>

--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungsgeschichte" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>R7 bereinigt</t>
+  </si>
+  <si>
+    <t>Schadenspotenzial R2 angepasst, R3 bereinigt</t>
   </si>
 </sst>
 </file>
@@ -337,10 +340,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20 % - Akzent4" xfId="3" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="2" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="3" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="2" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -533,7 +536,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D12" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D13" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
     <tableColumn id="2" name="Version" dataDxfId="25"/>
@@ -563,9 +566,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -603,7 +606,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -675,7 +678,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -849,13 +852,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
@@ -1030,6 +1033,20 @@
         <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>40861</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1049,11 +1066,11 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -1150,11 +1167,11 @@
         <v>20</v>
       </c>
       <c r="E5" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ref="F5:F10" si="0">(D5/100)*E5</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
@@ -1178,14 +1195,14 @@
         <v>19</v>
       </c>
       <c r="D6" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
         <v>50</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>18</v>
@@ -1196,7 +1213,9 @@
       <c r="I6" s="4">
         <v>1</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1349,11 +1368,11 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4">
         <f>SUBTOTAL(109,Table1[Schadens-potenzial '[h']])</f>
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F12" s="4">
         <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>

--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -195,12 +195,18 @@
   </si>
   <si>
     <t>Schadenspotenzial R2 angepasst, R3 bereinigt</t>
+  </si>
+  <si>
+    <t>keine Nachführung nötig gewesen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,7 +296,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,9 +320,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -324,9 +327,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -337,6 +337,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -347,6 +356,10 @@
   </cellStyles>
   <dxfs count="36">
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -420,9 +433,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -536,30 +546,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D13" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D14" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
-    <tableColumn id="2" name="Version" dataDxfId="25"/>
-    <tableColumn id="3" name="Änderung" dataDxfId="24"/>
-    <tableColumn id="5" name="Autor" dataDxfId="23"/>
+    <tableColumn id="2" name="Version" dataDxfId="0"/>
+    <tableColumn id="3" name="Änderung" dataDxfId="25"/>
+    <tableColumn id="5" name="Autor" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="10" name="SP neu" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="SP bereinigt" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="10" name="SP neu" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="11" name="SP bereinigt" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -852,7 +862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -893,14 +903,14 @@
       <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>40809</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -909,14 +919,14 @@
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>40811</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -925,14 +935,14 @@
       <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>40811</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="16">
         <v>1.2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -941,14 +951,14 @@
       <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>40816</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="16">
         <v>1.3</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -957,14 +967,14 @@
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>40819</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="16">
         <v>1.4</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -973,14 +983,14 @@
       <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>37180</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="16">
         <v>1.5</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -989,14 +999,14 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>40833</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="16">
         <v>1.6</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1005,17 +1015,17 @@
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>40839</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="17">
         <v>1.7</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1023,13 +1033,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>40847</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="17">
         <v>1.8</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1037,17 +1047,31 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>40861</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="17">
         <v>1.9</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>40875</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1055,8 +1079,9 @@
     <mergeCell ref="E3:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1067,27 +1092,27 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="42.5703125" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" customWidth="1"/>
     <col min="9" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1114,14 +1139,14 @@
       <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>43</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1153,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1250,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>

--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>keine Nachführung nötig gewesen</t>
+  </si>
+  <si>
+    <t>R2 bereinigt, keine Risiken mehr vorhanden</t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -332,20 +335,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -356,83 +359,83 @@
   </cellStyles>
   <dxfs count="36">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -546,30 +549,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D14" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D15" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="4">
     <tableColumn id="1" name="Datum" dataDxfId="26"/>
-    <tableColumn id="2" name="Version" dataDxfId="0"/>
-    <tableColumn id="3" name="Änderung" dataDxfId="25"/>
-    <tableColumn id="5" name="Autor" dataDxfId="24"/>
+    <tableColumn id="2" name="Version" dataDxfId="25"/>
+    <tableColumn id="3" name="Änderung" dataDxfId="24"/>
+    <tableColumn id="5" name="Autor" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="10" name="SP neu" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="11" name="SP bereinigt" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
+    <tableColumn id="10" name="SP neu" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="SP bereinigt" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,14 +906,14 @@
       <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>40809</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -919,14 +922,14 @@
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>40811</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -935,14 +938,14 @@
       <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>40811</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>1.2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -951,14 +954,14 @@
       <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>40816</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>1.3</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -967,14 +970,14 @@
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>40819</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>1.4</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -983,14 +986,14 @@
       <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>37180</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>1.5</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -999,14 +1002,14 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>40833</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>1.6</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1015,14 +1018,14 @@
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>40839</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>1.7</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1036,7 +1039,7 @@
       <c r="A12" s="10">
         <v>40847</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>1.8</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1050,7 +1053,7 @@
       <c r="A13" s="10">
         <v>40861</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>1.9</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1064,7 +1067,7 @@
       <c r="A14" s="10">
         <v>40875</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1072,6 +1075,20 @@
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>40890</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1092,7 +1109,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,10 +1126,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1146,7 +1163,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1189,14 +1206,14 @@
         <v>13</v>
       </c>
       <c r="D5" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
         <v>20</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ref="F5:F10" si="0">(D5/100)*E5</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
@@ -1207,7 +1224,9 @@
       <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1306,7 +1325,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1397,7 +1416,7 @@
       </c>
       <c r="F12" s="4">
         <f>SUBTOTAL(109,Table1[Reserven '[h']])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>

--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400"/>
+    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungsgeschichte" sheetId="3" r:id="rId1"/>
@@ -113,12 +113,6 @@
     <t>cheidt</t>
   </si>
   <si>
-    <t>Share Point Anbindung</t>
-  </si>
-  <si>
-    <t>Der Cronjob kann nicht am Share Point angebunden werden. Deshalb müssten die PNs manuell eingetragen werden, was zusäzliche variable Kosten verursacht.</t>
-  </si>
-  <si>
     <t>Falls die Anbindung nicht möglich sein sollte, muss für den Betrieb ein GUI Interface programmiert werden, das einfach bedient werden kann. Somit bleiben die variablen Kosten tief.</t>
   </si>
   <si>
@@ -201,6 +195,12 @@
   </si>
   <si>
     <t>R2 bereinigt, keine Risiken mehr vorhanden</t>
+  </si>
+  <si>
+    <t>Sharepoint Anbindung</t>
+  </si>
+  <si>
+    <t>Der Cronjob kann nicht am Sharepoint angebunden werden. Deshalb müssten die PNs manuell eingetragen werden, was zusäzliche variable Kosten verursacht.</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -933,7 +933,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>26</v>
@@ -949,7 +949,7 @@
         <v>1.2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>28</v>
@@ -981,7 +981,7 @@
         <v>1.4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>28</v>
@@ -997,7 +997,7 @@
         <v>1.5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
@@ -1013,7 +1013,7 @@
         <v>1.6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>28</v>
@@ -1029,7 +1029,7 @@
         <v>1.7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>28</v>
@@ -1043,7 +1043,7 @@
         <v>1.8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>28</v>
@@ -1057,7 +1057,7 @@
         <v>1.9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>28</v>
@@ -1071,7 +1071,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
@@ -1085,7 +1085,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>28</v>
@@ -1108,8 +1108,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1142,10 +1142,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>3</v>
@@ -1157,10 +1157,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
@@ -1299,10 +1299,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" s="4">
         <v>2</v>
@@ -1330,10 +1330,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" s="4">
         <v>2</v>
@@ -1363,10 +1363,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I10" s="4">
         <v>3</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>

--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungsgeschichte" sheetId="3" r:id="rId1"/>
@@ -143,12 +143,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>SP neu</t>
-  </si>
-  <si>
-    <t>SP bereinigt</t>
-  </si>
-  <si>
     <t>Schadens-potenzial [h]</t>
   </si>
   <si>
@@ -201,6 +195,12 @@
   </si>
   <si>
     <t>Der Cronjob kann nicht am Sharepoint angebunden werden. Deshalb müssten die PNs manuell eingetragen werden, was zusäzliche variable Kosten verursacht.</t>
+  </si>
+  <si>
+    <t>Sprint neu</t>
+  </si>
+  <si>
+    <t>Sprint bereinigt</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,21 +221,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -295,11 +280,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -332,9 +317,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -344,10 +326,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -571,8 +550,8 @@
     <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
     <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
     <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="10" name="SP neu" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="SP bereinigt" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="10" name="Sprint neu" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -865,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +858,7 @@
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -887,13 +866,13 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -906,14 +885,12 @@
       <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>40809</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -922,46 +899,40 @@
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>40811</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>40811</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>1.2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>40816</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>1.3</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -970,133 +941,122 @@
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>40819</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>1.4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>37180</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>1.5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>40833</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>1.6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>40839</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>1.7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>40847</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>1.8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>40861</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>1.9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>40875</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>1.1000000000000001</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>40890</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>1.1100000000000001</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E3:F10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1108,28 +1068,28 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" customWidth="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" customWidth="1"/>
     <col min="9" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1145,7 +1105,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>3</v>
@@ -1156,11 +1116,11 @@
       <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>41</v>
+      <c r="I3" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1195,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1228,7 +1188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1299,10 +1259,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -1315,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>31</v>
@@ -1325,7 +1285,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1363,10 +1323,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -1379,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I10" s="4">
         <v>3</v>
@@ -1478,7 +1438,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400"/>
+    <workbookView xWindow="360" yWindow="225" windowWidth="11640" windowHeight="5400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungsgeschichte" sheetId="3" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>Es wird ein klares, einfaches API Interface vorgegeben (falls möglich sogar inkl. Unit Tests), damit es möglichst einfach ist, die Anbindung zu programmieren.</t>
   </si>
   <si>
-    <t>R4 hinzuefügt + Werte angepasst</t>
-  </si>
-  <si>
     <t>R4 bereinigt</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Sprint bereinigt</t>
+  </si>
+  <si>
+    <t>R4 hinzugefügt + Werte angepasst</t>
   </si>
 </sst>
 </file>
@@ -326,9 +326,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent4" xfId="3" builtinId="42" customBuiltin="1"/>
@@ -542,16 +540,16 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="18" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="13" totalsRowDxfId="3"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="10" name="Sprint neu" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="10" name="Sprint neu" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -846,15 +844,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" customWidth="1"/>
+    <col min="3" max="3" width="67.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -908,7 +906,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>26</v>
@@ -922,7 +920,7 @@
         <v>1.2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>28</v>
@@ -950,7 +948,7 @@
         <v>1.4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>28</v>
@@ -964,7 +962,7 @@
         <v>1.5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
@@ -978,7 +976,7 @@
         <v>1.6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>28</v>
@@ -992,7 +990,7 @@
         <v>1.7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>28</v>
@@ -1006,7 +1004,7 @@
         <v>1.8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>28</v>
@@ -1020,7 +1018,7 @@
         <v>1.9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>28</v>
@@ -1034,7 +1032,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
@@ -1048,7 +1046,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>28</v>
@@ -1068,21 +1066,22 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="33.7109375" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
@@ -1117,10 +1116,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1259,10 +1258,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -1363,7 +1362,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -1434,9 +1433,6 @@
       <c r="H17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/05_Projektmanagement/03 _Risikomanagement.xlsx
@@ -53,9 +53,6 @@
     <t>Erste Version des Dokuments</t>
   </si>
   <si>
-    <t>Fehleinschätzung des Zeitaufwands</t>
-  </si>
-  <si>
     <t>Kontinuierliche Überprüfung der Projektplanung und eventuelle Anpassung. Verantwortung für aktuellen Projektplan an einem Teammitglied zuweisen.</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>R4 hinzugefügt + Werte angepasst</t>
+  </si>
+  <si>
+    <t>Fehlein-schätzung des Zeitaufwands</t>
   </si>
 </sst>
 </file>
@@ -326,13 +326,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent4" xfId="3" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="2" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="3" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="2" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -540,25 +542,25 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J12" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" name="Risiko" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="Sprint neu" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Nr." totalsRowLabel="Total" dataDxfId="18" totalsRowDxfId="19"/>
+    <tableColumn id="2" name="Risiko" dataDxfId="16" totalsRowDxfId="17"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="4" name="W'keit des Eintretens [%]" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="5" name="Schadens-potenzial [h]" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="6" name="Reserven [h]" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="7" name="Vermeidungs- und Verminderungsmassnahmen" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="8" name="Aktionen beim Eintreffen" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="10" name="Sprint neu" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="11" name="Sprint bereinigt" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -596,7 +598,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -668,7 +670,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -845,10 +847,10 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
@@ -881,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -906,10 +908,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -920,10 +922,10 @@
         <v>1.2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,10 +936,10 @@
         <v>1.3</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,10 +950,10 @@
         <v>1.4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -962,10 +964,10 @@
         <v>1.5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -976,10 +978,10 @@
         <v>1.6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -990,10 +992,10 @@
         <v>1.7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1004,10 +1006,10 @@
         <v>1.8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,10 +1020,10 @@
         <v>1.9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,10 +1034,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1046,15 +1048,15 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1066,20 +1068,20 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
@@ -1089,10 +1091,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1101,10 +1111,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>3</v>
@@ -1116,21 +1126,21 @@
         <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4">
         <v>100</v>
@@ -1142,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
@@ -1154,15 +1164,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -1175,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
@@ -1187,15 +1197,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -1208,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -1220,15 +1230,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -1241,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -1253,15 +1263,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -1274,25 +1284,25 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="4">
         <v>2</v>
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -1305,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="I9" s="4">
         <v>2</v>
@@ -1317,15 +1327,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -1338,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="I10" s="4">
         <v>3</v>
@@ -1362,9 +1372,9 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1433,8 +1443,11 @@
       <c r="H17" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
